--- a/scantimes_LP.xlsx
+++ b/scantimes_LP.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,54 +8,88 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\School\ENGSCI 255\Labs\Lab 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5865794A-0236-4F9F-B999-219EF807C99A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F245B20F-8345-4081-90C5-15F407FD34EE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scantimes" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">scantimes!$B$2:$BF$2</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">Sheet1!$B$2:$BF$2</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">scantimes!$B$2:$BF$2</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">Sheet1!$B$2:$BF$2</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">scantimes!$B$8</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">Sheet1!$B$8</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">scantimes!$B$7</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">Sheet1!$B$7</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">5</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">5</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">binary</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">binary</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">scantimes!$D$8</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">50</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="64">
   <si>
     <t>Attribute</t>
   </si>
@@ -252,7 +286,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1103,11 +1137,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BF8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1825,231 +1859,231 @@
         <v>62</v>
       </c>
       <c r="B6">
-        <f>($B4:$BF4)/($B3:$BF3)</f>
+        <f t="shared" ref="B6:AG6" si="0">($B4:$BF4)/($B3:$BF3)</f>
         <v>0.69482332487309639</v>
       </c>
       <c r="C6">
-        <f>($B4:$BF4)/($B3:$BF3)</f>
+        <f t="shared" si="0"/>
         <v>0.94216244897959189</v>
       </c>
       <c r="D6">
-        <f>($B4:$BF4)/($B3:$BF3)</f>
+        <f t="shared" si="0"/>
         <v>6.3679022911051213</v>
       </c>
       <c r="E6">
-        <f>($B4:$BF4)/($B3:$BF3)</f>
+        <f t="shared" si="0"/>
         <v>0.14922622573687994</v>
       </c>
       <c r="F6">
-        <f>($B4:$BF4)/($B3:$BF3)</f>
+        <f t="shared" si="0"/>
         <v>6.6643621979166667</v>
       </c>
       <c r="G6">
-        <f>($B4:$BF4)/($B3:$BF3)</f>
+        <f t="shared" si="0"/>
         <v>1.6292318648905804</v>
       </c>
       <c r="H6">
-        <f>($B4:$BF4)/($B3:$BF3)</f>
+        <f t="shared" si="0"/>
         <v>18.970675542299347</v>
       </c>
       <c r="I6">
-        <f>($B4:$BF4)/($B3:$BF3)</f>
+        <f t="shared" si="0"/>
         <v>2.3422588592233011</v>
       </c>
       <c r="J6">
-        <f>($B4:$BF4)/($B3:$BF3)</f>
+        <f t="shared" si="0"/>
         <v>0.64558312165263965</v>
       </c>
       <c r="K6">
-        <f>($B4:$BF4)/($B3:$BF3)</f>
+        <f t="shared" si="0"/>
         <v>1.0941450845335001</v>
       </c>
       <c r="L6">
-        <f>($B4:$BF4)/($B3:$BF3)</f>
+        <f t="shared" si="0"/>
         <v>9.8196306280193255</v>
       </c>
       <c r="M6">
-        <f>($B4:$BF4)/($B3:$BF3)</f>
+        <f t="shared" si="0"/>
         <v>1.7467459772727274</v>
       </c>
       <c r="N6">
-        <f>($B4:$BF4)/($B3:$BF3)</f>
+        <f t="shared" si="0"/>
         <v>3.1126882040816324</v>
       </c>
       <c r="O6">
-        <f>($B4:$BF4)/($B3:$BF3)</f>
+        <f t="shared" si="0"/>
         <v>0.33163949635036499</v>
       </c>
       <c r="P6">
-        <f>($B4:$BF4)/($B3:$BF3)</f>
+        <f t="shared" si="0"/>
         <v>2.1486955639097745</v>
       </c>
       <c r="Q6">
-        <f>($B4:$BF4)/($B3:$BF3)</f>
+        <f t="shared" si="0"/>
         <v>32.078620408602148</v>
       </c>
       <c r="R6">
-        <f>($B4:$BF4)/($B3:$BF3)</f>
+        <f t="shared" si="0"/>
         <v>34.62824088607595</v>
       </c>
       <c r="S6">
-        <f>($B4:$BF4)/($B3:$BF3)</f>
+        <f t="shared" si="0"/>
         <v>3.1589676991150437</v>
       </c>
       <c r="T6">
-        <f>($B4:$BF4)/($B3:$BF3)</f>
+        <f t="shared" si="0"/>
         <v>3.3024338835534213</v>
       </c>
       <c r="U6">
-        <f>($B4:$BF4)/($B3:$BF3)</f>
+        <f t="shared" si="0"/>
         <v>2.662477665706052</v>
       </c>
       <c r="V6">
-        <f>($B4:$BF4)/($B3:$BF3)</f>
+        <f t="shared" si="0"/>
         <v>14.988715980392156</v>
       </c>
       <c r="W6">
-        <f>($B4:$BF4)/($B3:$BF3)</f>
+        <f t="shared" si="0"/>
         <v>0.33841651044965171</v>
       </c>
       <c r="X6">
-        <f>($B4:$BF4)/($B3:$BF3)</f>
+        <f t="shared" si="0"/>
         <v>4.0448716342412459</v>
       </c>
       <c r="Y6">
-        <f>($B4:$BF4)/($B3:$BF3)</f>
+        <f t="shared" si="0"/>
         <v>8.2069855239064093</v>
       </c>
       <c r="Z6">
-        <f>($B4:$BF4)/($B3:$BF3)</f>
+        <f t="shared" si="0"/>
         <v>15.928187968253969</v>
       </c>
       <c r="AA6">
-        <f>($B4:$BF4)/($B3:$BF3)</f>
+        <f t="shared" si="0"/>
         <v>7.5407301188118812</v>
       </c>
       <c r="AB6">
-        <f>($B4:$BF4)/($B3:$BF3)</f>
+        <f t="shared" si="0"/>
         <v>7.7777704666666665</v>
       </c>
       <c r="AC6">
-        <f>($B4:$BF4)/($B3:$BF3)</f>
+        <f t="shared" si="0"/>
         <v>48.839087599999999</v>
       </c>
       <c r="AD6">
-        <f>($B4:$BF4)/($B3:$BF3)</f>
+        <f t="shared" si="0"/>
         <v>0.50175590487238986</v>
       </c>
       <c r="AE6">
-        <f>($B4:$BF4)/($B3:$BF3)</f>
+        <f t="shared" si="0"/>
         <v>0.79184727354260087</v>
       </c>
       <c r="AF6">
-        <f>($B4:$BF4)/($B3:$BF3)</f>
+        <f t="shared" si="0"/>
         <v>0.52145146341463422</v>
       </c>
       <c r="AG6">
-        <f>($B4:$BF4)/($B3:$BF3)</f>
+        <f t="shared" si="0"/>
         <v>1.35419</v>
       </c>
       <c r="AH6">
-        <f>($B4:$BF4)/($B3:$BF3)</f>
+        <f t="shared" ref="AH6:BF6" si="1">($B4:$BF4)/($B3:$BF3)</f>
         <v>1.7184946334310849</v>
       </c>
       <c r="AI6">
-        <f>($B4:$BF4)/($B3:$BF3)</f>
+        <f t="shared" si="1"/>
         <v>0.10859694868238558</v>
       </c>
       <c r="AJ6">
-        <f>($B4:$BF4)/($B3:$BF3)</f>
+        <f t="shared" si="1"/>
         <v>3.2160716460905348</v>
       </c>
       <c r="AK6">
-        <f>($B4:$BF4)/($B3:$BF3)</f>
+        <f t="shared" si="1"/>
         <v>1.5255689072164951</v>
       </c>
       <c r="AL6">
-        <f>($B4:$BF4)/($B3:$BF3)</f>
+        <f t="shared" si="1"/>
         <v>8.1630662021857923</v>
       </c>
       <c r="AM6">
-        <f>($B4:$BF4)/($B3:$BF3)</f>
+        <f t="shared" si="1"/>
         <v>0.68157268456375841</v>
       </c>
       <c r="AN6">
-        <f>($B4:$BF4)/($B3:$BF3)</f>
+        <f t="shared" si="1"/>
         <v>0.68304198058252419</v>
       </c>
       <c r="AO6">
-        <f>($B4:$BF4)/($B3:$BF3)</f>
+        <f t="shared" si="1"/>
         <v>0.18289093390804598</v>
       </c>
       <c r="AP6">
-        <f>($B4:$BF4)/($B3:$BF3)</f>
+        <f t="shared" si="1"/>
         <v>0.22717578793774321</v>
       </c>
       <c r="AQ6">
-        <f>($B4:$BF4)/($B3:$BF3)</f>
+        <f t="shared" si="1"/>
         <v>1.0011538768430182</v>
       </c>
       <c r="AR6">
-        <f>($B4:$BF4)/($B3:$BF3)</f>
+        <f t="shared" si="1"/>
         <v>0.55874709624796093</v>
       </c>
       <c r="AS6">
-        <f>($B4:$BF4)/($B3:$BF3)</f>
+        <f t="shared" si="1"/>
         <v>2.8044495918367347</v>
       </c>
       <c r="AT6">
-        <f>($B4:$BF4)/($B3:$BF3)</f>
+        <f t="shared" si="1"/>
         <v>1.6826803304484657</v>
       </c>
       <c r="AU6">
-        <f>($B4:$BF4)/($B3:$BF3)</f>
+        <f t="shared" si="1"/>
         <v>5.3011853036437246</v>
       </c>
       <c r="AV6">
-        <f>($B4:$BF4)/($B3:$BF3)</f>
+        <f t="shared" si="1"/>
         <v>0.22580004784688998</v>
       </c>
       <c r="AW6">
-        <f>($B4:$BF4)/($B3:$BF3)</f>
+        <f t="shared" si="1"/>
         <v>0.89099640522875823</v>
       </c>
       <c r="AX6">
-        <f>($B4:$BF4)/($B3:$BF3)</f>
+        <f t="shared" si="1"/>
         <v>2.3649504103671708</v>
       </c>
       <c r="AY6">
-        <f>($B4:$BF4)/($B3:$BF3)</f>
+        <f t="shared" si="1"/>
         <v>6.4667581280788182</v>
       </c>
       <c r="AZ6">
-        <f>($B4:$BF4)/($B3:$BF3)</f>
+        <f t="shared" si="1"/>
         <v>0.5222378775913129</v>
       </c>
       <c r="BA6">
-        <f>($B4:$BF4)/($B3:$BF3)</f>
+        <f t="shared" si="1"/>
         <v>16.281887599510103</v>
       </c>
       <c r="BB6">
-        <f>($B4:$BF4)/($B3:$BF3)</f>
+        <f t="shared" si="1"/>
         <v>14.742151845461366</v>
       </c>
       <c r="BC6">
-        <f>($B4:$BF4)/($B3:$BF3)</f>
+        <f t="shared" si="1"/>
         <v>0.94459454869358672</v>
       </c>
       <c r="BD6">
-        <f>($B4:$BF4)/($B3:$BF3)</f>
+        <f t="shared" si="1"/>
         <v>30.964267089201876</v>
       </c>
       <c r="BE6">
-        <f>($B4:$BF4)/($B3:$BF3)</f>
+        <f t="shared" si="1"/>
         <v>11.626281322393822</v>
       </c>
       <c r="BF6">
-        <f>($B4:$BF4)/($B3:$BF3)</f>
+        <f t="shared" si="1"/>
         <v>5.6970133312921014</v>
       </c>
     </row>
@@ -2069,6 +2103,986 @@
       <c r="B8">
         <f>SUMPRODUCT($B$2:$BF$2,$B$3:$BF$3)</f>
         <v>49.93</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD86C81-2621-440E-B055-0CE7B18FF3AF}">
+  <dimension ref="A1:BF8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
+      <selection activeCell="BA2" sqref="BA2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.90625" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>822790840</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>1</v>
+      </c>
+      <c r="R2" s="2">
+        <v>1</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0</v>
+      </c>
+      <c r="V2" s="2">
+        <v>1</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0</v>
+      </c>
+      <c r="X2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA2" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB2" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC2" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD2" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE2" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3">
+        <v>11.82</v>
+      </c>
+      <c r="C3">
+        <v>11.27</v>
+      </c>
+      <c r="D3">
+        <v>3.71</v>
+      </c>
+      <c r="E3">
+        <v>13.91</v>
+      </c>
+      <c r="F3">
+        <v>9.6</v>
+      </c>
+      <c r="G3">
+        <v>10.51</v>
+      </c>
+      <c r="H3">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="I3">
+        <v>12.36</v>
+      </c>
+      <c r="J3">
+        <v>13.07</v>
+      </c>
+      <c r="K3">
+        <v>15.97</v>
+      </c>
+      <c r="L3">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="M3">
+        <v>13.2</v>
+      </c>
+      <c r="N3">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="O3">
+        <v>13.7</v>
+      </c>
+      <c r="P3">
+        <v>1.33</v>
+      </c>
+      <c r="Q3">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="R3">
+        <v>0.79</v>
+      </c>
+      <c r="S3">
+        <v>5.65</v>
+      </c>
+      <c r="T3">
+        <v>16.66</v>
+      </c>
+      <c r="U3">
+        <v>3.47</v>
+      </c>
+      <c r="V3">
+        <v>8.16</v>
+      </c>
+      <c r="W3">
+        <v>15.79</v>
+      </c>
+      <c r="X3">
+        <v>12.85</v>
+      </c>
+      <c r="Y3">
+        <v>9.83</v>
+      </c>
+      <c r="Z3">
+        <v>6.3</v>
+      </c>
+      <c r="AA3">
+        <v>5.05</v>
+      </c>
+      <c r="AB3">
+        <v>6</v>
+      </c>
+      <c r="AC3">
+        <v>0.25</v>
+      </c>
+      <c r="AD3">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="AE3">
+        <v>11.15</v>
+      </c>
+      <c r="AF3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AG3">
+        <v>1.23</v>
+      </c>
+      <c r="AH3">
+        <v>3.41</v>
+      </c>
+      <c r="AI3">
+        <v>14.42</v>
+      </c>
+      <c r="AJ3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="AK3">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="AL3">
+        <v>3.66</v>
+      </c>
+      <c r="AM3">
+        <v>1.49</v>
+      </c>
+      <c r="AN3">
+        <v>10.3</v>
+      </c>
+      <c r="AO3">
+        <v>13.92</v>
+      </c>
+      <c r="AP3">
+        <v>10.28</v>
+      </c>
+      <c r="AQ3">
+        <v>11.53</v>
+      </c>
+      <c r="AR3">
+        <v>6.13</v>
+      </c>
+      <c r="AS3">
+        <v>1.47</v>
+      </c>
+      <c r="AT3">
+        <v>12.71</v>
+      </c>
+      <c r="AU3">
+        <v>7.41</v>
+      </c>
+      <c r="AV3">
+        <v>2.09</v>
+      </c>
+      <c r="AW3">
+        <v>3.06</v>
+      </c>
+      <c r="AX3">
+        <v>4.63</v>
+      </c>
+      <c r="AY3">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="AZ3">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="BA3">
+        <v>16.329999999999998</v>
+      </c>
+      <c r="BB3">
+        <v>13.33</v>
+      </c>
+      <c r="BC3">
+        <v>8.42</v>
+      </c>
+      <c r="BD3">
+        <v>4.26</v>
+      </c>
+      <c r="BE3">
+        <v>10.36</v>
+      </c>
+      <c r="BF3">
+        <v>16.329999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="1">
+        <v>8.2128116999999996</v>
+      </c>
+      <c r="C4" s="1">
+        <v>10.6181708</v>
+      </c>
+      <c r="D4" s="1">
+        <v>23.624917499999999</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.0757368</v>
+      </c>
+      <c r="F4" s="1">
+        <v>63.977877100000001</v>
+      </c>
+      <c r="G4" s="1">
+        <v>17.123226899999999</v>
+      </c>
+      <c r="H4" s="1">
+        <v>174.9096285</v>
+      </c>
+      <c r="I4" s="1">
+        <v>28.950319499999999</v>
+      </c>
+      <c r="J4" s="1">
+        <v>8.4377714000000008</v>
+      </c>
+      <c r="K4" s="1">
+        <v>17.473496999999998</v>
+      </c>
+      <c r="L4" s="1">
+        <v>20.326635400000001</v>
+      </c>
+      <c r="M4" s="1">
+        <v>23.0570469</v>
+      </c>
+      <c r="N4" s="1">
+        <v>7.6260861000000002</v>
+      </c>
+      <c r="O4" s="1">
+        <v>4.5434611</v>
+      </c>
+      <c r="P4" s="1">
+        <v>2.8577650999999999</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>149.1655849</v>
+      </c>
+      <c r="R4" s="1">
+        <v>27.356310300000001</v>
+      </c>
+      <c r="S4" s="1">
+        <v>17.848167499999999</v>
+      </c>
+      <c r="T4" s="1">
+        <v>55.018548500000001</v>
+      </c>
+      <c r="U4" s="1">
+        <v>9.2387975000000004</v>
+      </c>
+      <c r="V4" s="1">
+        <v>122.3079224</v>
+      </c>
+      <c r="W4" s="1">
+        <v>5.3435967</v>
+      </c>
+      <c r="X4" s="1">
+        <v>51.976600500000004</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>80.674667700000001</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>100.3475842</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>38.080687099999999</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>46.666622799999999</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>12.2097719</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>4.3251359000000003</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>8.8290971000000003</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>4.2759020000000003</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>1.6656537</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>5.8600667</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>1.565968</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>7.8150541000000002</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>7.3990092000000001</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>29.876822300000001</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>1.0155433</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>7.0353323999999997</v>
+      </c>
+      <c r="AO4" s="1">
+        <v>2.5458417999999998</v>
+      </c>
+      <c r="AP4" s="1">
+        <v>2.3353671</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>11.5433042</v>
+      </c>
+      <c r="AR4" s="1">
+        <v>3.4251197000000002</v>
+      </c>
+      <c r="AS4" s="1">
+        <v>4.1225408999999997</v>
+      </c>
+      <c r="AT4" s="1">
+        <v>21.386866999999999</v>
+      </c>
+      <c r="AU4" s="1">
+        <v>39.281783099999998</v>
+      </c>
+      <c r="AV4" s="1">
+        <v>0.47192210000000001</v>
+      </c>
+      <c r="AW4" s="1">
+        <v>2.7264490000000001</v>
+      </c>
+      <c r="AX4" s="1">
+        <v>10.9497204</v>
+      </c>
+      <c r="AY4" s="1">
+        <v>26.255037999999999</v>
+      </c>
+      <c r="AZ4" s="1">
+        <v>5.2902696999999996</v>
+      </c>
+      <c r="BA4" s="1">
+        <v>265.88322449999998</v>
+      </c>
+      <c r="BB4" s="1">
+        <v>196.51288410000001</v>
+      </c>
+      <c r="BC4" s="1">
+        <v>7.9534861000000001</v>
+      </c>
+      <c r="BD4" s="1">
+        <v>131.90777779999999</v>
+      </c>
+      <c r="BE4" s="1">
+        <v>120.4482745</v>
+      </c>
+      <c r="BF4" s="1">
+        <v>93.032227700000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6">
+        <f>($B4:$BF4)</f>
+        <v>8.2128116999999996</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:BF6" si="0">($B4:$BF4)</f>
+        <v>10.6181708</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>23.624917499999999</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>2.0757368</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>63.977877100000001</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>17.123226899999999</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>174.9096285</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>28.950319499999999</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>8.4377714000000008</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>17.473496999999998</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>20.326635400000001</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>23.0570469</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>7.6260861000000002</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>4.5434611</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>2.8577650999999999</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>149.1655849</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>27.356310300000001</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>17.848167499999999</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="0"/>
+        <v>55.018548500000001</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>9.2387975000000004</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="0"/>
+        <v>122.3079224</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="0"/>
+        <v>5.3435967</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="0"/>
+        <v>51.976600500000004</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="0"/>
+        <v>80.674667700000001</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="0"/>
+        <v>100.3475842</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="0"/>
+        <v>38.080687099999999</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="0"/>
+        <v>46.666622799999999</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="0"/>
+        <v>12.2097719</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="0"/>
+        <v>4.3251359000000003</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" si="0"/>
+        <v>8.8290971000000003</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="0"/>
+        <v>4.2759020000000003</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" si="0"/>
+        <v>1.6656537</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" si="0"/>
+        <v>5.8600667</v>
+      </c>
+      <c r="AI6">
+        <f t="shared" si="0"/>
+        <v>1.565968</v>
+      </c>
+      <c r="AJ6">
+        <f t="shared" si="0"/>
+        <v>7.8150541000000002</v>
+      </c>
+      <c r="AK6">
+        <f t="shared" si="0"/>
+        <v>7.3990092000000001</v>
+      </c>
+      <c r="AL6">
+        <f t="shared" si="0"/>
+        <v>29.876822300000001</v>
+      </c>
+      <c r="AM6">
+        <f t="shared" si="0"/>
+        <v>1.0155433</v>
+      </c>
+      <c r="AN6">
+        <f t="shared" si="0"/>
+        <v>7.0353323999999997</v>
+      </c>
+      <c r="AO6">
+        <f t="shared" si="0"/>
+        <v>2.5458417999999998</v>
+      </c>
+      <c r="AP6">
+        <f t="shared" si="0"/>
+        <v>2.3353671</v>
+      </c>
+      <c r="AQ6">
+        <f t="shared" si="0"/>
+        <v>11.5433042</v>
+      </c>
+      <c r="AR6">
+        <f t="shared" si="0"/>
+        <v>3.4251197000000002</v>
+      </c>
+      <c r="AS6">
+        <f t="shared" si="0"/>
+        <v>4.1225408999999997</v>
+      </c>
+      <c r="AT6">
+        <f t="shared" si="0"/>
+        <v>21.386866999999999</v>
+      </c>
+      <c r="AU6">
+        <f t="shared" si="0"/>
+        <v>39.281783099999998</v>
+      </c>
+      <c r="AV6">
+        <f t="shared" si="0"/>
+        <v>0.47192210000000001</v>
+      </c>
+      <c r="AW6">
+        <f t="shared" si="0"/>
+        <v>2.7264490000000001</v>
+      </c>
+      <c r="AX6">
+        <f t="shared" si="0"/>
+        <v>10.9497204</v>
+      </c>
+      <c r="AY6">
+        <f t="shared" si="0"/>
+        <v>26.255037999999999</v>
+      </c>
+      <c r="AZ6">
+        <f t="shared" si="0"/>
+        <v>5.2902696999999996</v>
+      </c>
+      <c r="BA6">
+        <f t="shared" si="0"/>
+        <v>265.88322449999998</v>
+      </c>
+      <c r="BB6">
+        <f t="shared" si="0"/>
+        <v>196.51288410000001</v>
+      </c>
+      <c r="BC6">
+        <f t="shared" si="0"/>
+        <v>7.9534861000000001</v>
+      </c>
+      <c r="BD6">
+        <f t="shared" si="0"/>
+        <v>131.90777779999999</v>
+      </c>
+      <c r="BE6">
+        <f t="shared" si="0"/>
+        <v>120.4482745</v>
+      </c>
+      <c r="BF6">
+        <f t="shared" si="0"/>
+        <v>93.032227700000007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7">
+        <f>SUMPRODUCT($B$2:$BF$2,$B$6:$BF$6)</f>
+        <v>984.08780449999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8">
+        <f>SUMPRODUCT($B$2:$BF$2,$B$3:$BF$3)</f>
+        <v>49.96</v>
       </c>
       <c r="C8" t="s">
         <v>60</v>
